--- a/config_12.15/prop_clear_server.xlsx
+++ b/config_12.15/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>id|行号</t>
   </si>
@@ -300,6 +300,14 @@
   </si>
   <si>
     <t>双十二抽奖券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_dz_jz</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子掉落物</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +380,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +423,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -457,7 +471,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -562,6 +576,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -843,7 +872,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1388,11 +1417,22 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B32" s="18"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="10"/>
+    <row r="32" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="35">
+        <v>31</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="37">
+        <v>1607990400</v>
+      </c>
+      <c r="D32" s="38">
+        <v>1608566399</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="33" spans="2:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="18"/>
